--- a/biology/Botanique/Festuca_ovina/Festuca_ovina.xlsx
+++ b/biology/Botanique/Festuca_ovina/Festuca_ovina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fétuque ovine ou fétuque des moutons (Festuca ovina) est une espèce de plantes herbacées vivaces de la famille des Poaceae, sous-famille des Pooideae, tribu des Aveneae cultivée essentiellement pour l'établissement de pelouses et rarement, comme plante fourragère. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de petite taille, formant des touffes de feuilles fines de couleur vert-bleuâtre.
 Inflorescences en panicules.
@@ -543,7 +557,9 @@
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des régions tempérées et froide d'Europe et d'Asie :
 Europe : pays scandinaves, îles Britanniques, Europe centrale de la Belgique à la Pologne, Europe orientale des pays baltes à la Roumanie,
@@ -578,12 +594,48 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante fourragère faiblement productive et de valeur fourragère limitée, mais adaptée à des conditions difficiles : prairies sur terrains secs et acides[1] notamment en montagne pour moutons ou chêvres. Elle est peu utilisée.
-Plantes à gazon très utilisée en mélanges pour créer des pelouses résistantes en terrain secs notamment. Elle peut pousser sur sol très pauvre mais supporte moins le piétinement que la fétuque rouge[2]
-Variétés cultivées
-Plus de 90 variétés de Fétuque ovine sont inscrites dans le catalogue européen des espèces et variétés dont 20 variétés de fétuque ovine durette[3] inscrites au catalogue français[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plante fourragère faiblement productive et de valeur fourragère limitée, mais adaptée à des conditions difficiles : prairies sur terrains secs et acides notamment en montagne pour moutons ou chêvres. Elle est peu utilisée.
+Plantes à gazon très utilisée en mélanges pour créer des pelouses résistantes en terrain secs notamment. Elle peut pousser sur sol très pauvre mais supporte moins le piétinement que la fétuque rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Festuca_ovina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festuca_ovina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés cultivées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 90 variétés de Fétuque ovine sont inscrites dans le catalogue européen des espèces et variétés dont 20 variétés de fétuque ovine durette inscrites au catalogue français.
 </t>
         </is>
       </c>
